--- a/SummaryOutput/DaysAbovelt50 by height.xlsx
+++ b/SummaryOutput/DaysAbovelt50 by height.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Pern</t>
   </si>
@@ -55,12 +55,15 @@
   <si>
     <t>Mean number of days per year where  temperature exceeds LT50  for &gt; 6 hours. Means are based on temperature data while exposed to air and collected from 1997 - 2009.</t>
   </si>
+  <si>
+    <t>Standard deviation of the same data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +75,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -342,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,6 +415,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,13 +443,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,47 +743,50 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="25" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="20"/>
       <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -793,7 +812,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>50</v>
       </c>
@@ -819,7 +838,7 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>60</v>
       </c>
@@ -845,7 +864,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>70</v>
       </c>
@@ -869,11 +888,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="21"/>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>80</v>
       </c>
@@ -899,7 +918,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>90</v>
       </c>
@@ -925,7 +944,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>100</v>
       </c>
@@ -951,7 +970,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>110</v>
       </c>
@@ -977,7 +996,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>120</v>
       </c>
@@ -1003,11 +1022,11 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>130</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="22">
         <v>0.69230769230769196</v>
       </c>
       <c r="C13" s="4">
@@ -1017,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="2">
+      <c r="F13" s="32">
         <v>2.8461538461538498</v>
       </c>
       <c r="G13" s="2">
@@ -1029,14 +1048,14 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>140</v>
       </c>
       <c r="B14" s="2">
         <v>1.6153846153846201</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="23">
         <v>1.4615384615384599</v>
       </c>
       <c r="D14" s="2">
@@ -1046,7 +1065,7 @@
       <c r="F14" s="2">
         <v>4.7692307692307701</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="32">
         <v>4.4615384615384599</v>
       </c>
       <c r="H14" s="19">
@@ -1055,7 +1074,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>150</v>
       </c>
@@ -1081,7 +1100,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>160</v>
       </c>
@@ -1143,7 +1162,7 @@
       <c r="C18" s="4">
         <v>13.2307692307692</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="22">
         <v>1.07692307692308</v>
       </c>
       <c r="E18" s="3"/>
@@ -1153,7 +1172,7 @@
       <c r="G18" s="2">
         <v>29.461538461538499</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="33">
         <v>4.6923076923076898</v>
       </c>
       <c r="I18" s="21"/>
@@ -1343,15 +1362,15 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="16"/>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
@@ -1556,7 +1575,7 @@
       <c r="B35" s="2">
         <v>0</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="23">
         <v>0</v>
       </c>
       <c r="D35" s="2">
@@ -1601,7 +1620,7 @@
       <c r="A37" s="6">
         <v>150</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B37" s="22">
         <v>0</v>
       </c>
       <c r="C37" s="4">
@@ -1703,7 +1722,7 @@
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="22">
         <v>0</v>
       </c>
       <c r="E41" s="3"/>
